--- a/it_api/wwwroot/report/excel/Baohiem.xlsx
+++ b/it_api/wwwroot/report/excel/Baohiem.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\netcore\it_api\it_api\wwwroot\report\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41D90B15-526A-47F7-B5ED-093265566AA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90689DF4-ADD0-40C3-A7C2-AE8FBF43C5D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="720" yWindow="3090" windowWidth="28080" windowHeight="13110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BHXH" sheetId="2" r:id="rId1"/>
@@ -52,9 +52,6 @@
     <t xml:space="preserve">Lô D1, D2, D6, D7 và D8 tại Khu công nghiệp Hoà Hiệp 1, </t>
   </si>
   <si>
-    <t>Phường Hòa Hiệp Bắc, Thị xã Đông Hoà, Tỉnh Phú Yên, Việt Nam</t>
-  </si>
-  <si>
     <t>MST: 4401062392</t>
   </si>
   <si>
@@ -145,6 +142,9 @@
   </si>
   <si>
     <t>Mã NV</t>
+  </si>
+  <si>
+    <t>Phường Hòa Hiệp, Tỉnh Phú Yên, Việt Nam</t>
   </si>
 </sst>
 </file>
@@ -474,62 +474,62 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="3" fontId="13" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1930,7 +1930,7 @@
   <dimension ref="A1:AI30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1985,17 +1985,17 @@
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="B3" s="2"/>
       <c r="AB3" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AC3" s="2"/>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="2"/>
       <c r="G4" s="3"/>
@@ -2016,26 +2016,26 @@
       <c r="W4" s="3"/>
     </row>
     <row r="5" spans="1:35" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="51" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="51"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="51"/>
-      <c r="J5" s="51"/>
-      <c r="K5" s="51"/>
-      <c r="L5" s="51"/>
-      <c r="M5" s="51"/>
-      <c r="N5" s="51"/>
-      <c r="O5" s="51"/>
-      <c r="P5" s="51"/>
-      <c r="Q5" s="51"/>
-      <c r="R5" s="51"/>
+      <c r="A5" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="37"/>
+      <c r="M5" s="37"/>
+      <c r="N5" s="37"/>
+      <c r="O5" s="37"/>
+      <c r="P5" s="37"/>
+      <c r="Q5" s="37"/>
+      <c r="R5" s="37"/>
       <c r="X5" s="6"/>
       <c r="Y5" s="6"/>
       <c r="Z5" s="6"/>
@@ -2050,26 +2050,26 @@
       <c r="AI5" s="6"/>
     </row>
     <row r="6" spans="1:35" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="52"/>
-      <c r="C6" s="52"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="52"/>
-      <c r="F6" s="52"/>
-      <c r="G6" s="52"/>
-      <c r="H6" s="52"/>
-      <c r="I6" s="52"/>
-      <c r="J6" s="52"/>
-      <c r="K6" s="52"/>
-      <c r="L6" s="52"/>
-      <c r="M6" s="52"/>
-      <c r="N6" s="52"/>
-      <c r="O6" s="52"/>
-      <c r="P6" s="52"/>
-      <c r="Q6" s="52"/>
-      <c r="R6" s="52"/>
+      <c r="A6" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="38"/>
+      <c r="N6" s="38"/>
+      <c r="O6" s="38"/>
+      <c r="P6" s="38"/>
+      <c r="Q6" s="38"/>
+      <c r="R6" s="38"/>
       <c r="S6" s="18"/>
       <c r="T6" s="18"/>
       <c r="U6" s="18"/>
@@ -2156,47 +2156,47 @@
       <c r="AI7" s="7"/>
     </row>
     <row r="8" spans="1:35" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="38" t="s">
+      <c r="A8" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="38" t="s">
+      <c r="D8" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="38" t="s">
+      <c r="E8" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="39" t="s">
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="39"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="39"/>
-      <c r="J8" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="K8" s="54"/>
-      <c r="L8" s="54"/>
-      <c r="M8" s="55"/>
-      <c r="N8" s="40" t="s">
+      <c r="K8" s="44"/>
+      <c r="L8" s="44"/>
+      <c r="M8" s="45"/>
+      <c r="N8" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="O8" s="54" t="s">
+        <v>25</v>
+      </c>
+      <c r="P8" s="55"/>
+      <c r="Q8" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="R8" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="O8" s="42" t="s">
-        <v>26</v>
-      </c>
-      <c r="P8" s="43"/>
-      <c r="Q8" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="R8" s="40" t="s">
-        <v>25</v>
-      </c>
-      <c r="S8" s="44"/>
+      <c r="S8" s="46"/>
       <c r="T8" s="20"/>
       <c r="U8"/>
       <c r="V8" s="3"/>
@@ -2206,45 +2206,45 @@
       <c r="AH8" s="14"/>
     </row>
     <row r="9" spans="1:35" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="39"/>
-      <c r="B9" s="39"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
+      <c r="A9" s="40"/>
+      <c r="B9" s="40"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
       <c r="F9" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="22" t="s">
+      <c r="H9" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="H9" s="22" t="s">
+      <c r="I9" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="I9" s="23" t="s">
+      <c r="J9" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="J9" s="24" t="s">
+      <c r="K9" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="K9" s="24" t="s">
-        <v>21</v>
-      </c>
       <c r="L9" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="M9" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="M9" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="N9" s="41"/>
+      <c r="N9" s="42"/>
       <c r="O9" s="36" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="P9" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q9" s="39"/>
-      <c r="R9" s="41"/>
-      <c r="S9" s="44"/>
+        <v>28</v>
+      </c>
+      <c r="Q9" s="40"/>
+      <c r="R9" s="42"/>
+      <c r="S9" s="46"/>
       <c r="T9" s="20"/>
       <c r="U9"/>
       <c r="V9" s="3"/>
@@ -2306,12 +2306,12 @@
       <c r="AG11" s="5"/>
     </row>
     <row r="12" spans="1:35" s="8" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="45" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="46"/>
-      <c r="C12" s="46"/>
-      <c r="D12" s="47"/>
+      <c r="A12" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="48"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="49"/>
       <c r="E12" s="28">
         <f>SUM(E10:E11)</f>
         <v>0</v>
@@ -2401,22 +2401,22 @@
     <row r="14" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="31"/>
       <c r="B14" s="31"/>
-      <c r="C14" s="48" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="48"/>
+      <c r="C14" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="50"/>
       <c r="E14" s="32"/>
       <c r="F14" s="32"/>
-      <c r="G14" s="49" t="s">
-        <v>22</v>
-      </c>
-      <c r="H14" s="49"/>
+      <c r="G14" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" s="51"/>
       <c r="I14" s="33"/>
       <c r="L14" s="33"/>
-      <c r="M14" s="50" t="s">
-        <v>9</v>
-      </c>
-      <c r="N14" s="50"/>
+      <c r="M14" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="N14" s="52"/>
       <c r="O14" s="17"/>
       <c r="P14" s="17"/>
       <c r="Q14" s="17"/>
@@ -2434,22 +2434,22 @@
     <row r="15" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
-      <c r="C15" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" s="37"/>
+      <c r="C15" s="53" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="53"/>
       <c r="E15" s="16"/>
       <c r="F15" s="16"/>
-      <c r="G15" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="H15" s="37"/>
+      <c r="G15" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="H15" s="53"/>
       <c r="I15" s="16"/>
       <c r="L15" s="16"/>
-      <c r="M15" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="N15" s="37"/>
+      <c r="M15" s="53" t="s">
+        <v>9</v>
+      </c>
+      <c r="N15" s="53"/>
       <c r="O15" s="15"/>
       <c r="P15" s="15"/>
       <c r="Q15" s="15"/>
@@ -2769,6 +2769,18 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="Q8:Q9"/>
+    <mergeCell ref="R8:R9"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="S8:S9"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="B8:B9"/>
     <mergeCell ref="A5:R5"/>
     <mergeCell ref="A6:R6"/>
     <mergeCell ref="A8:A9"/>
@@ -2778,18 +2790,6 @@
     <mergeCell ref="F8:I8"/>
     <mergeCell ref="N8:N9"/>
     <mergeCell ref="J8:M8"/>
-    <mergeCell ref="S8:S9"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="Q8:Q9"/>
-    <mergeCell ref="R8:R9"/>
-    <mergeCell ref="O8:P8"/>
   </mergeCells>
   <pageMargins left="0.3" right="0.2" top="0.51" bottom="0.4" header="0.48" footer="0.39"/>
   <pageSetup scale="62" orientation="landscape" verticalDpi="0" r:id="rId1"/>
